--- a/doc/授课时间表_0315.xlsx
+++ b/doc/授课时间表_0315.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26632\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4704118-753D-4F32-A2E5-985E90F67DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +20,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
   <si>
     <t>日期</t>
   </si>
@@ -332,12 +328,15 @@
 3.不同模型效果对比</t>
   </si>
   <si>
+    <t>PPT+实机</t>
+  </si>
+  <si>
     <t>1.RAG的概念,应用场景,核心流程,基础算法</t>
   </si>
   <si>
     <t>1.RAG的概念,应用场景,核心流程,基础算法
 2.常见的文件加载方式, text,pdf(PyMuPDF),Word
-3.文件切片方式,固定长度,overleap,自动llm切片(只提不演示)
+3.文件切片方式,固定长度,overlap,自动llm切片(只提不演示)
 4.embedding,acge_text_embedding,api_embedding,bm25(只提不演示)
 5.rerank:bge-reranker-v2-m3
 6.合并成提示词, 输入llm
@@ -345,70 +344,61 @@
   </si>
   <si>
     <t>模型1:acge_text_embedding
-模型2:bge-reranker-v2-m3</t>
+模型2:bge-reranker-v2-m3数据集:QMS模板数据合集</t>
+  </si>
+  <si>
+    <t>Agent</t>
   </si>
   <si>
     <t>石泽阳</t>
   </si>
   <si>
+    <t>1.LLaMA-Factory github页面
+2.LLaMA-Factory 安装
+3.数据集格式的讲解
+4.LLaMA-Factory的Qwen2.5-1.5B的Lora微调(2*1000)
+5.介绍微调参数:学习率, loss, epoch, examples等等
+6.介绍lora/全参微调的区别
+7.如何启动对话框测试微调后的模型
+8.预训练好的10epoch的效果演示
+9.合并微调后的模型,并启用</t>
+  </si>
+  <si>
+    <t>李云汉\唐莱恩</t>
+  </si>
+  <si>
+    <t>微调数据集的构建与蒸馏</t>
+  </si>
+  <si>
+    <t>淘宝客服的RAG数据集构建或Deepseek-R1的蒸馏构建?</t>
+  </si>
+  <si>
+    <t>1.三元组构建</t>
+  </si>
+  <si>
+    <t>暂定Jupyter</t>
+  </si>
+  <si>
+    <t>暂定PPT</t>
+  </si>
+  <si>
     <t>Muns</t>
   </si>
   <si>
     <t>医疗智能体的构建</t>
-  </si>
-  <si>
-    <t>1,对Manus进行简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPT+实机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.使用deepseek提取实体，关系的演示
-1.给出指定较长文本提取文本中的实体以及关系
-2.在openkg中下载好医疗知识图谱
-3.使用RAG调用知识图谱库进行检索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.简单介绍三元组的概念，基本结构
-2.简单介绍图数据库的优势和不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.在操作中引入智能体的概念
-2.我还需要去看一下子教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.医疗智能体构建的全部流程，从提示词-微调-数据库的构建
-2.数据库应当从哪里获取，不同任务下应当使用不同的数据集
-（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石泽阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,22 +407,157 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,7 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,8 +576,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -491,34 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -546,32 +829,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -612,6 +869,177 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -623,12 +1051,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -638,140 +1064,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -995,62 +1306,379 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -1059,31 +1687,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
@@ -1101,7 +1741,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1">
@@ -1109,15 +1749,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1128,168 +1789,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
+<woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookInfo cellCmpFml="2">
+    <open main="41" threadCnt="1"/>
+    <sheetInfos>
+      <sheetInfo cellCmpFml="2" sheetStid="1">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="2">
+        <open main="1" threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="3">
+        <open threadCnt="1"/>
+      </sheetInfo>
+    </sheetInfos>
+  </bookInfo>
+</woInfos>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1536,382 +2132,382 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="14.6083333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.4" customWidth="1"/>
     <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="44.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.275" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="5.875" customWidth="1"/>
-    <col min="10" max="10" width="58.125" customWidth="1"/>
+    <col min="9" max="9" width="5.91666666666667" customWidth="1"/>
+    <col min="10" max="10" width="58.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="34" t="s">
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="14.25" spans="2:10">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="53">
+    <row r="3" spans="2:10">
+      <c r="B3" s="65">
         <v>3.29</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="24">
         <v>20</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="74">
         <f>SUM(H3:H8)</f>
         <v>175</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B4" s="54"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="60" t="s">
+    <row r="4" ht="27" spans="2:10">
+      <c r="B4" s="68"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="27">
         <v>20</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="74"/>
+      <c r="J4" s="76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="54"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="5" t="s">
+    <row r="5" spans="2:10">
+      <c r="B5" s="68"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="27">
         <v>20</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="40" t="s">
+      <c r="I5" s="74"/>
+      <c r="J5" s="76" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="54"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="60" t="s">
+    <row r="6" ht="27" spans="2:10">
+      <c r="B6" s="68"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="27">
         <v>30</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="40" t="s">
+      <c r="I6" s="74"/>
+      <c r="J6" s="76" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="B7" s="54"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="5" t="s">
+    <row r="7" ht="81" spans="2:10">
+      <c r="B7" s="68"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="27">
         <v>35</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="41" t="s">
+      <c r="I7" s="74"/>
+      <c r="J7" s="77" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B8" s="54"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="8" t="s">
+    <row r="8" ht="54" spans="2:10">
+      <c r="B8" s="68"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="27">
         <v>50</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="41" t="s">
+      <c r="I8" s="78"/>
+      <c r="J8" s="77" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="54"/>
-      <c r="C9" s="58" t="s">
+    <row r="9" ht="27" spans="2:10">
+      <c r="B9" s="68"/>
+      <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="27">
         <v>75</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="79">
         <f>SUM(H9:H16)</f>
         <v>255</v>
       </c>
-      <c r="J9" s="40"/>
+      <c r="J9" s="76"/>
     </row>
-    <row r="10" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="54"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="5" t="s">
+    <row r="10" ht="27" spans="2:10">
+      <c r="B10" s="68"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="27">
         <v>20</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="41" t="s">
+      <c r="I10" s="74"/>
+      <c r="J10" s="77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B11" s="54"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="60" t="s">
+    <row r="11" ht="54" spans="2:10">
+      <c r="B11" s="68"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="27">
         <v>40</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="41" t="s">
+      <c r="I11" s="74"/>
+      <c r="J11" s="77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B12" s="54"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="5" t="s">
+    <row r="12" ht="54" spans="2:10">
+      <c r="B12" s="68"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="27">
         <v>20</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="40" t="s">
+      <c r="I12" s="74"/>
+      <c r="J12" s="76" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="54"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="60" t="s">
+    <row r="13" spans="2:10">
+      <c r="B13" s="68"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="27">
         <v>50</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="40" t="s">
+      <c r="I13" s="74"/>
+      <c r="J13" s="76" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="54"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="5" t="s">
+    <row r="14" spans="2:10">
+      <c r="B14" s="68"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="27">
         <v>25</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="40" t="s">
+      <c r="I14" s="74"/>
+      <c r="J14" s="76" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B15" s="54"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="5" t="s">
+    <row r="15" ht="27" spans="2:10">
+      <c r="B15" s="68"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="27">
         <v>10</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="40" t="s">
+      <c r="I15" s="74"/>
+      <c r="J15" s="76" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="55"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="37" t="s">
+    <row r="16" ht="27.75" spans="2:10">
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="35">
         <v>15</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="42" t="s">
+      <c r="I16" s="80"/>
+      <c r="J16" s="81" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
-    <mergeCell ref="I3:I8"/>
-    <mergeCell ref="I9:I16"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="C9:C16"/>
@@ -1920,28 +2516,32 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D15"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="I9:I16"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:S19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="14.6083333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.4" customWidth="1"/>
     <col min="5" max="5" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="6.375" customWidth="1"/>
     <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
@@ -1954,680 +2554,749 @@
     <col min="19" max="19" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B2" s="80" t="s">
+    <row r="1" ht="14.25"/>
+    <row r="2" spans="2:19">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="88"/>
+      <c r="S2" s="54"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B3" s="81"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="15" t="s">
+    <row r="3" spans="2:19">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="81" x14ac:dyDescent="0.15">
-      <c r="B4" s="82">
+    <row r="4" ht="81" spans="2:19">
+      <c r="B4" s="6">
         <v>3.29</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="24">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="27"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="56"/>
     </row>
-    <row r="5" spans="2:19" ht="27" x14ac:dyDescent="0.15">
-      <c r="B5" s="82"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="60" t="s">
+    <row r="5" ht="27" spans="2:19">
+      <c r="B5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="24">
         <v>10</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="28"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="57"/>
     </row>
-    <row r="6" spans="2:19" ht="105" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="83"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="5" t="s">
+    <row r="6" ht="105" customHeight="1" spans="2:19">
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="27">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="22" t="s">
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="29"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="58"/>
     </row>
-    <row r="7" spans="2:19" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="83"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="5" t="s">
+    <row r="7" ht="81" customHeight="1" spans="2:19">
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="27">
         <v>20</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="22" t="s">
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="22" t="s">
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="30" t="s">
+      <c r="S7" s="59" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="167.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="83"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="62" t="s">
+    <row r="8" ht="167" customHeight="1" spans="2:19">
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="27">
         <v>30</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="22" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="29"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="58"/>
     </row>
-    <row r="9" spans="2:19" ht="201" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="83"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="5" t="s">
+    <row r="9" ht="201" customHeight="1" spans="2:19">
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="27">
         <v>35</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="22" t="s">
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="S9" s="29"/>
+      <c r="S9" s="58"/>
     </row>
-    <row r="10" spans="2:19" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="83"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="8" t="s">
+    <row r="10" ht="202.5" spans="2:19">
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="27">
         <v>50</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="22" t="s">
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="29"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="58"/>
     </row>
-    <row r="11" spans="2:19" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="83"/>
-      <c r="C11" s="86" t="s">
+    <row r="11" ht="148.5" spans="2:19">
+      <c r="B11" s="11"/>
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="27">
         <v>75</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="45" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="60"/>
+      <c r="S11" s="58"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="27">
+        <v>10</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48"/>
+      <c r="S12" s="58"/>
+    </row>
+    <row r="13" ht="40.5" spans="2:19">
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="27">
+        <v>20</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="58"/>
+    </row>
+    <row r="14" ht="121.5" spans="2:19">
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="27">
+        <v>40</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="58"/>
+    </row>
+    <row r="15" ht="202.5" spans="2:19">
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="27">
+        <v>20</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="58"/>
+    </row>
+    <row r="16" ht="40.5" spans="2:19">
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="27">
+        <v>50</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="46"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="58"/>
+    </row>
+    <row r="17" ht="81" spans="2:19">
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="27">
+        <v>25</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="31"/>
-      <c r="S11" s="29"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="58"/>
     </row>
-    <row r="12" spans="2:19" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="83"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5">
-        <v>20</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="44" t="s">
+    <row r="18" ht="94.5" spans="2:19">
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="27">
+        <v>10</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="29"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="58"/>
     </row>
-    <row r="13" spans="2:19" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="83"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5">
-        <v>40</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="29"/>
+    <row r="19" spans="2:19">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="33">
+        <v>5</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="61"/>
     </row>
-    <row r="14" spans="2:19" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="83"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="5">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="29"/>
-    </row>
-    <row r="15" spans="2:19" ht="235.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="5">
-        <v>50</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="2:19" ht="81" x14ac:dyDescent="0.15">
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="5">
-        <v>25</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="29"/>
-    </row>
-    <row r="17" spans="2:19" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="83"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="5">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="29"/>
-    </row>
-    <row r="18" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="84"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="89" t="s">
+    <row r="20" ht="135.75" spans="2:19">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="11">
-        <v>5</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="32"/>
-    </row>
-    <row r="19" spans="2:19" ht="135" x14ac:dyDescent="0.15">
-      <c r="B19" s="85"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="13">
+      <c r="F20" s="35">
         <v>15</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G20" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="66"/>
-      <c r="I19" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="33"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="27">
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B19"/>
+    <mergeCell ref="B4:B20"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H11"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings fileId="" isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/授课时间表_0315.xlsx
+++ b/doc/授课时间表_0315.xlsx
@@ -114,6 +114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 模型下载:演示模型下载的方法,实际上提前发给他们压缩包,然后当场他们传云服务器,但是这也很花时间</t>
     </r>
     <r>
@@ -163,6 +169,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 解释大模型的基本原理及其幻觉问题。</t>
     </r>
     <r>
@@ -218,6 +230,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 解释RAG的定义、作用、适用场景及其经典结构。</t>
     </r>
     <r>
@@ -248,6 +266,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗器械法规审核-仓库管理-是否违反防虫防鼠条例</t>
     </r>
     <r>
@@ -281,6 +305,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗器械法规审核-仓库管理-是否违反防虫防鼠条例</t>
     </r>
     <r>
@@ -308,6 +338,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 使用Deepseek模型生成合成数据，扩展训练数据集。</t>
     </r>
     <r>
@@ -1758,12 +1794,13 @@
   <sheetPr/>
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
+    <col min="3" max="3" width="15.3909090909091" customWidth="1"/>
     <col min="5" max="5" width="23.1181818181818" customWidth="1"/>
     <col min="6" max="6" width="57.9181818181818" customWidth="1"/>
     <col min="10" max="10" width="85.4545454545455" customWidth="1"/>
@@ -1895,7 +1932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="104" customHeight="1" spans="2:10">
+    <row r="7" ht="86" customHeight="1" spans="2:10">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="8"/>
@@ -1916,7 +1953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="79" customHeight="1" spans="2:10">
+    <row r="8" ht="58" customHeight="1" spans="2:10">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="8" t="s">
@@ -1964,7 +2001,7 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" ht="78" customHeight="1" spans="2:10">
+    <row r="10" ht="40" customHeight="1" spans="2:10">
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
       <c r="D10" s="8"/>
@@ -1985,7 +2022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="56.75" spans="2:10">
+    <row r="11" ht="65" customHeight="1" spans="2:10">
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
       <c r="D11" s="8" t="s">
@@ -2008,7 +2045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" ht="97" customHeight="1" spans="2:10">
+    <row r="12" ht="51" customHeight="1" spans="2:10">
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
       <c r="D12" s="8"/>
@@ -2052,7 +2089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="84.75" spans="2:10">
+    <row r="14" ht="14.75" spans="2:10">
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
       <c r="D14" s="8"/>
@@ -2094,7 +2131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" ht="95" customHeight="1" spans="2:10">
+    <row r="16" ht="55" customHeight="1" spans="2:10">
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12" t="s">

--- a/doc/授课时间表_0315.xlsx
+++ b/doc/授课时间表_0315.xlsx
@@ -113,53 +113,9 @@
     <t>探索常用社区资源如Github/Huggingface/Modelscope，如何进行模型下载，并通过VLLM/Ollama/SGLang/Transformer启动模型，进行模型试用。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1. 模型下载:演示模型下载的方法,实际上提前发给他们压缩包,然后当场他们传云服务器,但是这也很花时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2. 模型的部署最基础是transformer启动, 但ds系列不兼容transformer启动,但是后续自己开发的话transformer启动得讲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3. vllm启动, ollama启动, SGLang启动, 如果现场配置的话两三小时多不一定搞得定, 但是提前配置docker能上传云服务器就快很多</t>
-    </r>
+    <t>1. 模型下载:演示模型下载的方法,实际上提前发给他们压缩包,然后当场他们传云服务器,但是这也很花时间
+2. 模型的部署最基础是transformer启动, 但ds系列不兼容transformer启动,但是后续自己开发的话transformer启动得讲
+3. vllm启动, ollama启动, SGLang启动, 如果现场配置的话两三小时多不一定搞得定, 但是提前配置docker能上传云服务器就快很多</t>
   </si>
   <si>
     <t>基础使用</t>
@@ -575,7 +531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +541,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD2F4F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,7 +1047,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,16 +1071,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1121,89 +1089,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,6 +1201,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1794,8 +1768,8 @@
   <sheetPr/>
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1832,7 +1806,7 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1858,10 +1832,10 @@
       <c r="H3" s="7">
         <v>20</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="17">
         <v>175</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1883,8 +1857,8 @@
       <c r="H4" s="9">
         <v>20</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1895,7 +1869,7 @@
       <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -1904,8 +1878,8 @@
       <c r="H5" s="9">
         <v>20</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="17" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1927,8 +1901,8 @@
       <c r="H6" s="9">
         <v>30</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1939,7 +1913,7 @@
       <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -1948,8 +1922,8 @@
       <c r="H7" s="9">
         <v>35</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="18" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1962,7 +1936,7 @@
       <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -1971,14 +1945,14 @@
       <c r="H8" s="9">
         <v>50</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="18" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" ht="28.75" spans="2:10">
       <c r="B9" s="4"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1987,7 +1961,7 @@
       <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -1996,19 +1970,19 @@
       <c r="H9" s="9">
         <v>75</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="21">
         <v>255</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="2:10">
       <c r="B10" s="4"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -2017,21 +1991,21 @@
       <c r="H10" s="9">
         <v>20</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" ht="65" customHeight="1" spans="2:10">
       <c r="B11" s="4"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -2040,19 +2014,19 @@
       <c r="H11" s="9">
         <v>40</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" ht="51" customHeight="1" spans="2:10">
       <c r="B12" s="4"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="12" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -2061,21 +2035,21 @@
       <c r="H12" s="9">
         <v>20</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" ht="14.75" spans="2:10">
       <c r="B13" s="4"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -2084,19 +2058,19 @@
       <c r="H13" s="9">
         <v>50</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="17" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" ht="14.75" spans="2:10">
       <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -2105,19 +2079,19 @@
       <c r="H14" s="9">
         <v>25</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="17" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" ht="14.75" spans="2:10">
       <c r="B15" s="4"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -2126,31 +2100,31 @@
       <c r="H15" s="9">
         <v>10</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="17" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="2:10">
       <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="15">
         <v>15</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="22" t="s">
         <v>13</v>
       </c>
     </row>

--- a/doc/授课时间表_0315.xlsx
+++ b/doc/授课时间表_0315.xlsx
@@ -1768,7 +1768,7 @@
   <sheetPr/>
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/doc/授课时间表_0315.xlsx
+++ b/doc/授课时间表_0315.xlsx
@@ -1769,7 +1769,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
